--- a/application/controllers/excel-templates/SF_FOC_Bill_of_Supply-v1.xlsx
+++ b/application/controllers/excel-templates/SF_FOC_Bill_of_Supply-v1.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/247around-adminp-aws/application/controllers/excel-templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anujaggarwal/Downloads/Excel Template new/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -50,9 +50,6 @@
     <t>Name: Blackmelon Advance Technology Co. Pvt. Ltd.</t>
   </si>
   <si>
-    <t>Address: 92C/1, LANE 7, EAST AZAD NAGAR, KRISHNA NAGAR, DELHI 110051</t>
-  </si>
-  <si>
     <t>GSTIN: 07AAFCB1281J1ZQ</t>
   </si>
   <si>
@@ -131,12 +128,15 @@
   <si>
     <t>Value of 
 Supply</t>
+  </si>
+  <si>
+    <t>Address: A-1/7a, A BLOCK, KRISHNA NAGAR, DELHI 110051</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -859,6 +859,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -868,6 +892,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -896,8 +947,39 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -906,47 +988,52 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -967,17 +1054,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -990,102 +1085,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1101,6 +1101,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1371,8 +1374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:R30"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1418,655 +1421,654 @@
     </row>
     <row r="2" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="31"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="57"/>
     </row>
     <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" s="83"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="8"/>
     </row>
     <row r="4" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="77" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="79"/>
+      <c r="B4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="11"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="27"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="59"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="28"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="60"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="42"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="77"/>
     </row>
     <row r="8" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="87" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="44"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="78"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="81"/>
     </row>
     <row r="9" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="40"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="72"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="95"/>
-      <c r="Q10" s="95"/>
-      <c r="R10" s="96"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="69"/>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="89"/>
-      <c r="O11" s="89"/>
-      <c r="P11" s="89"/>
-      <c r="Q11" s="89"/>
-      <c r="R11" s="90"/>
+      <c r="B11" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="63"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="91"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="92"/>
-      <c r="P12" s="92"/>
-      <c r="Q12" s="92"/>
-      <c r="R12" s="93"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="66"/>
     </row>
     <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="23" t="s">
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="R13" s="22"/>
+      <c r="R13" s="39"/>
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="24" t="s">
+      <c r="K14" s="42"/>
+      <c r="L14" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="25"/>
-      <c r="L14" s="24" t="s">
+      <c r="M14" s="42"/>
+      <c r="N14" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M14" s="25"/>
-      <c r="N14" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="O14" s="46"/>
-      <c r="P14" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q14" s="97"/>
-      <c r="R14" s="98"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="46"/>
     </row>
     <row r="15" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="100"/>
-      <c r="R15" s="101"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="49"/>
     </row>
     <row r="16" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="49" t="s">
+      <c r="K16" s="101"/>
+      <c r="L16" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="65"/>
-      <c r="L16" s="50" t="s">
+      <c r="M16" s="101"/>
+      <c r="N16" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="M16" s="65"/>
-      <c r="N16" s="49" t="s">
+      <c r="O16" s="54"/>
+      <c r="P16" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="O16" s="102"/>
-      <c r="P16" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="76"/>
+      <c r="Q16" s="107"/>
+      <c r="R16" s="113"/>
     </row>
     <row r="17" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="53" t="s">
+      <c r="M17" s="85"/>
+      <c r="N17" s="102"/>
+      <c r="O17" s="103"/>
+      <c r="P17" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="M17" s="54"/>
-      <c r="N17" s="103"/>
-      <c r="O17" s="104"/>
-      <c r="P17" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="75"/>
+      <c r="Q17" s="105"/>
+      <c r="R17" s="112"/>
     </row>
     <row r="18" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="40"/>
+      <c r="B18" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="72"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="72"/>
+      <c r="B19" s="108" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="109"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="63"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="96"/>
     </row>
     <row r="21" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="67"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="67"/>
-      <c r="R21" s="75"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="105"/>
+      <c r="L21" s="105"/>
+      <c r="M21" s="105"/>
+      <c r="N21" s="105"/>
+      <c r="O21" s="105"/>
+      <c r="P21" s="105"/>
+      <c r="Q21" s="105"/>
+      <c r="R21" s="112"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="105" t="s">
+      <c r="B22" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="106"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="57"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="87"/>
+      <c r="R22" s="88"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="108"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="60"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="90"/>
+      <c r="P23" s="90"/>
+      <c r="Q23" s="90"/>
+      <c r="R23" s="91"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="109"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="34"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="93"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="93"/>
+      <c r="P24" s="93"/>
+      <c r="Q24" s="93"/>
+      <c r="R24" s="94"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="63"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="96"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="108"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="63"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="96"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="108"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="63"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="96"/>
     </row>
     <row r="28" spans="1:18" ht="0.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="108"/>
-      <c r="C28" s="109"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="36"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="97"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="98"/>
+      <c r="N28" s="98"/>
+      <c r="O28" s="98"/>
+      <c r="P28" s="98"/>
+      <c r="Q28" s="98"/>
+      <c r="R28" s="99"/>
     </row>
     <row r="29" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="111"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="52"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="83"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="114" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="114"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="114"/>
-      <c r="G30" s="114"/>
-      <c r="H30" s="114"/>
-      <c r="I30" s="114"/>
-      <c r="J30" s="114"/>
-      <c r="K30" s="114"/>
-      <c r="L30" s="114"/>
-      <c r="M30" s="114"/>
-      <c r="N30" s="114"/>
-      <c r="O30" s="114"/>
-      <c r="P30" s="114"/>
-      <c r="Q30" s="114"/>
-      <c r="R30" s="114"/>
+      <c r="B30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="L14:M15"/>
     <mergeCell ref="K29:R29"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="K22:R23"/>
@@ -2104,6 +2106,7 @@
     <mergeCell ref="P14:R15"/>
     <mergeCell ref="N14:O15"/>
     <mergeCell ref="N16:O16"/>
+    <mergeCell ref="L14:M15"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/application/controllers/excel-templates/SF_FOC_Bill_of_Supply-v1.xlsx
+++ b/application/controllers/excel-templates/SF_FOC_Bill_of_Supply-v1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anujaggarwal/Downloads/Excel Template new/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\247around-adminp-aws\application\controllers\excel-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AB1BE3-031A-4BD0-9E6B-BF1AF696CAA6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7180" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,13 +131,13 @@
 Supply</t>
   </si>
   <si>
-    <t>Address: A-1/7a, A BLOCK, KRISHNA NAGAR, DELHI 110051</t>
+    <t>Address: A-1/7, F/F A BLOCK, KRISHNA NAGAR, DELHI, 110051</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -859,125 +860,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -988,7 +932,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1003,11 +950,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1023,6 +965,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1035,57 +980,113 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1371,35 +1372,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:I13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="0.83203125" customWidth="1"/>
+    <col min="1" max="1" width="0.77734375" customWidth="1"/>
     <col min="2" max="2" width="2.6640625" customWidth="1"/>
-    <col min="3" max="3" width="3.5" customWidth="1"/>
+    <col min="3" max="3" width="3.44140625" customWidth="1"/>
     <col min="4" max="4" width="3.33203125" customWidth="1"/>
     <col min="5" max="6" width="3.6640625" customWidth="1"/>
     <col min="7" max="7" width="0.6640625" customWidth="1"/>
-    <col min="8" max="8" width="6.1640625" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" customWidth="1"/>
     <col min="9" max="10" width="4.6640625" customWidth="1"/>
     <col min="11" max="11" width="4.33203125" customWidth="1"/>
     <col min="12" max="12" width="3.33203125" customWidth="1"/>
-    <col min="13" max="13" width="2.1640625" customWidth="1"/>
+    <col min="13" max="13" width="2.109375" customWidth="1"/>
     <col min="14" max="14" width="4.33203125" customWidth="1"/>
-    <col min="15" max="15" width="2.83203125" customWidth="1"/>
-    <col min="16" max="16" width="3.1640625" customWidth="1"/>
+    <col min="15" max="15" width="2.77734375" customWidth="1"/>
+    <col min="16" max="16" width="3.109375" customWidth="1"/>
     <col min="17" max="17" width="4" customWidth="1"/>
     <col min="18" max="18" width="4.6640625" customWidth="1"/>
     <col min="19" max="19" width="0.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1419,678 +1420,656 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="57"/>
-    </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="46"/>
+    </row>
+    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="7" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="8"/>
-    </row>
-    <row r="4" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R3" s="76"/>
+    </row>
+    <row r="4" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="11"/>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="79"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="59"/>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="49"/>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="60"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="52"/>
+    </row>
+    <row r="7" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="76" t="s">
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="77"/>
-    </row>
-    <row r="8" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="66"/>
+    </row>
+    <row r="8" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="80" t="s">
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="78"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="81"/>
-    </row>
-    <row r="9" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="71"/>
+    </row>
+    <row r="9" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="72"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="40"/>
+    </row>
+    <row r="10" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="69"/>
-    </row>
-    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="61"/>
+    </row>
+    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="63"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="55"/>
+    </row>
+    <row r="12" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="66"/>
-    </row>
-    <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="58"/>
+    </row>
+    <row r="13" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="40" t="s">
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="38" t="s">
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="R13" s="39"/>
-    </row>
-    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R13" s="100"/>
+    </row>
+    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="41" t="s">
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="42"/>
-      <c r="L14" s="41" t="s">
+      <c r="K14" s="103"/>
+      <c r="L14" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="M14" s="42"/>
-      <c r="N14" s="44" t="s">
+      <c r="M14" s="103"/>
+      <c r="N14" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="O14" s="50"/>
-      <c r="P14" s="44" t="s">
+      <c r="O14" s="111"/>
+      <c r="P14" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="46"/>
-    </row>
-    <row r="15" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q14" s="106"/>
+      <c r="R14" s="107"/>
+    </row>
+    <row r="15" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="49"/>
-    </row>
-    <row r="16" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="104"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="112"/>
+      <c r="O15" s="113"/>
+      <c r="P15" s="108"/>
+      <c r="Q15" s="109"/>
+      <c r="R15" s="110"/>
+    </row>
+    <row r="16" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
-      <c r="B16" s="106" t="s">
+      <c r="B16" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="53" t="s">
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="101"/>
-      <c r="L16" s="100" t="s">
+      <c r="K16" s="25"/>
+      <c r="L16" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="M16" s="101"/>
-      <c r="N16" s="53" t="s">
+      <c r="M16" s="25"/>
+      <c r="N16" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="O16" s="54"/>
-      <c r="P16" s="100" t="s">
+      <c r="O16" s="114"/>
+      <c r="P16" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="Q16" s="107"/>
-      <c r="R16" s="113"/>
-    </row>
-    <row r="17" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q16" s="31"/>
+      <c r="R16" s="41"/>
+    </row>
+    <row r="17" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="105"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="84" t="s">
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="M17" s="85"/>
-      <c r="N17" s="102"/>
-      <c r="O17" s="103"/>
-      <c r="P17" s="114" t="s">
+      <c r="M17" s="8"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="Q17" s="105"/>
-      <c r="R17" s="112"/>
-    </row>
-    <row r="18" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q17" s="29"/>
+      <c r="R17" s="37"/>
+    </row>
+    <row r="18" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="72"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="40"/>
+    </row>
+    <row r="19" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="108" t="s">
+      <c r="B19" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="109"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="34"/>
+    </row>
+    <row r="20" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="110"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="96"/>
-    </row>
-    <row r="21" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="35"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="20"/>
+    </row>
+    <row r="21" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
-      <c r="B21" s="111"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="105"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="105"/>
-      <c r="L21" s="105"/>
-      <c r="M21" s="105"/>
-      <c r="N21" s="105"/>
-      <c r="O21" s="105"/>
-      <c r="P21" s="105"/>
-      <c r="Q21" s="105"/>
-      <c r="R21" s="112"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B21" s="36"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="37"/>
+    </row>
+    <row r="22" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="86" t="s">
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L22" s="87"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="87"/>
-      <c r="O22" s="87"/>
-      <c r="P22" s="87"/>
-      <c r="Q22" s="87"/>
-      <c r="R22" s="88"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="11"/>
+    </row>
+    <row r="23" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="90"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="90"/>
-      <c r="O23" s="90"/>
-      <c r="P23" s="90"/>
-      <c r="Q23" s="90"/>
-      <c r="R23" s="91"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B23" s="87"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="14"/>
+    </row>
+    <row r="24" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="92"/>
-      <c r="L24" s="93"/>
-      <c r="M24" s="93"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="93"/>
-      <c r="R24" s="94"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B24" s="87"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="17"/>
+    </row>
+    <row r="25" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="96"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B25" s="87"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="20"/>
+    </row>
+    <row r="26" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="95"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="96"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B26" s="87"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="20"/>
+    </row>
+    <row r="27" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="96"/>
-    </row>
-    <row r="28" spans="1:18" ht="0.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="87"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="20"/>
+    </row>
+    <row r="28" spans="1:18" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="97"/>
-      <c r="L28" s="98"/>
-      <c r="M28" s="98"/>
-      <c r="N28" s="98"/>
-      <c r="O28" s="98"/>
-      <c r="P28" s="98"/>
-      <c r="Q28" s="98"/>
-      <c r="R28" s="99"/>
-    </row>
-    <row r="29" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="87"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="23"/>
+    </row>
+    <row r="29" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="82" t="s">
+      <c r="B29" s="90"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="83"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="6"/>
+    </row>
+    <row r="30" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
+      <c r="P30" s="72"/>
+      <c r="Q30" s="72"/>
+      <c r="R30" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="K29:R29"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="K22:R23"/>
-    <mergeCell ref="K24:R28"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B19:R21"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="B5:R6"/>
-    <mergeCell ref="B11:R12"/>
-    <mergeCell ref="B10:R10"/>
-    <mergeCell ref="B9:R9"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="J7:R7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="J8:R8"/>
     <mergeCell ref="B30:R30"/>
     <mergeCell ref="B3:P3"/>
     <mergeCell ref="Q3:R3"/>
@@ -2107,6 +2086,28 @@
     <mergeCell ref="N14:O15"/>
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="L14:M15"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="B5:R6"/>
+    <mergeCell ref="B11:R12"/>
+    <mergeCell ref="B10:R10"/>
+    <mergeCell ref="B9:R9"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="J7:R7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="J8:R8"/>
+    <mergeCell ref="K29:R29"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="K22:R23"/>
+    <mergeCell ref="K24:R28"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B19:R21"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="J16:K16"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
